--- a/ECQL_Config_Generator/Sample_Input/ECQL_Config.xlsx
+++ b/ECQL_Config_Generator/Sample_Input/ECQL_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J33423\Documents\SPICE\ecql_web\ECQL_Config_Generator\Sample_Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377349C3-D6BD-44CA-8CCA-52FD0A907328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D5BE6D-0603-43A2-8D14-F076ED3ABC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEE05998-2E53-4F91-AB29-CF33CF0600E2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEE05998-2E53-4F91-AB29-CF33CF0600E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,9 +213,6 @@
     <t>#URI</t>
   </si>
   <si>
-    <t>127.0.0.1:8000</t>
-  </si>
-  <si>
     <t>C:\Users\J33423\Documents\SPICE\ecql_web\ECQL_Emulator\batch_scripts\geo10_heartbeat.bat</t>
   </si>
   <si>
@@ -274,6 +271,9 @@
   </si>
   <si>
     <t>SPA_STM_Spacecraft_Id:e==40</t>
+  </si>
+  <si>
+    <t>127.0.0.1:8000/ECQL_store</t>
   </si>
 </sst>
 </file>
@@ -556,22 +556,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -914,7 +914,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,10 +994,10 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L2">
         <v>10</v>
@@ -1006,7 +1006,7 @@
         <v>53</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1026,10 +1026,10 @@
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L3">
         <v>10</v>
@@ -1038,7 +1038,7 @@
         <v>54</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1058,10 +1058,10 @@
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L4">
         <v>10</v>
@@ -1070,7 +1070,7 @@
         <v>55</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1090,10 +1090,10 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L5">
         <v>10</v>
@@ -1102,7 +1102,7 @@
         <v>56</v>
       </c>
       <c r="N5" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1119,10 +1119,10 @@
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L6">
         <v>20</v>
@@ -1131,7 +1131,7 @@
         <v>53</v>
       </c>
       <c r="N6" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1148,10 +1148,10 @@
         <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L7">
         <v>20</v>
@@ -1160,7 +1160,7 @@
         <v>54</v>
       </c>
       <c r="N7" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1177,10 +1177,10 @@
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L8">
         <v>20</v>
@@ -1189,7 +1189,7 @@
         <v>55</v>
       </c>
       <c r="N8" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1206,10 +1206,10 @@
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L9">
         <v>20</v>
@@ -1218,7 +1218,7 @@
         <v>56</v>
       </c>
       <c r="N9" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1235,10 +1235,10 @@
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L10">
         <v>30</v>
@@ -1247,7 +1247,7 @@
         <v>53</v>
       </c>
       <c r="N10" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1264,10 +1264,10 @@
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L11">
         <v>30</v>
@@ -1276,7 +1276,7 @@
         <v>54</v>
       </c>
       <c r="N11" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1293,10 +1293,10 @@
         <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L12">
         <v>30</v>
@@ -1305,7 +1305,7 @@
         <v>55</v>
       </c>
       <c r="N12" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1322,10 +1322,10 @@
         <v>13</v>
       </c>
       <c r="J13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" t="s">
-        <v>73</v>
       </c>
       <c r="L13">
         <v>30</v>
@@ -1334,7 +1334,7 @@
         <v>56</v>
       </c>
       <c r="N13" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1351,10 +1351,10 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L14">
         <v>40</v>
@@ -1363,7 +1363,7 @@
         <v>53</v>
       </c>
       <c r="N14" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1380,10 +1380,10 @@
         <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L15">
         <v>40</v>
@@ -1392,7 +1392,7 @@
         <v>54</v>
       </c>
       <c r="N15" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1409,10 +1409,10 @@
         <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L16">
         <v>40</v>
@@ -1421,7 +1421,7 @@
         <v>55</v>
       </c>
       <c r="N16" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -1438,10 +1438,10 @@
         <v>13</v>
       </c>
       <c r="J17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" t="s">
         <v>77</v>
-      </c>
-      <c r="K17" t="s">
-        <v>78</v>
       </c>
       <c r="L17">
         <v>40</v>
@@ -1450,7 +1450,7 @@
         <v>56</v>
       </c>
       <c r="N17" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1510,7 +1510,7 @@
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1518,22 +1518,22 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
@@ -1542,7 +1542,7 @@
       <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1550,8 +1550,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
@@ -1560,7 +1560,7 @@
       <c r="A10" s="10">
         <v>5</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1568,8 +1568,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="A12" s="10">
         <v>6</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1586,8 +1586,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7" t="s">
         <v>30</v>
       </c>
@@ -1596,7 +1596,7 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1604,8 +1604,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="7" t="s">
         <v>35</v>
       </c>
@@ -1625,7 +1625,7 @@
       <c r="A17" s="10">
         <v>9</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1633,8 +1633,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
@@ -1643,7 +1643,7 @@
       <c r="A19" s="10">
         <v>10</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1651,8 +1651,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="7" t="s">
         <v>43</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="A21" s="10">
         <v>11</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -1669,14 +1669,14 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="17"/>
       <c r="C23" s="9" t="s">
         <v>47</v>
@@ -1685,12 +1685,6 @@
     <row r="24" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A21:A23"/>
@@ -1701,6 +1695,12 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
